--- a/MavanFirstProject/src/test/resources/excel/AppTest.xlsx
+++ b/MavanFirstProject/src/test/resources/excel/AppTest.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="30">
   <si>
     <t>url</t>
   </si>

--- a/MavanFirstProject/src/test/resources/excel/AppTest.xlsx
+++ b/MavanFirstProject/src/test/resources/excel/AppTest.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="30">
   <si>
     <t>url</t>
   </si>
